--- a/product_data/processing_metadata/C6/PIG_meta.xlsx
+++ b/product_data/processing_metadata/C6/PIG_meta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitytasmania-my.sharepoint.com/personal/kimberlee_baldry_utas_edu_au/Documents/Documents/Projects/BIO-MATE/BIO-MATE/product_data/processing_metadata/C6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBB06210-4FDE-44BE-BF20-D73D3552D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{EBB06210-4FDE-44BE-BF20-D73D3552D730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA409365-3F77-4F93-A766-747C20BB6459}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF2B8B76-E637-4FBF-82A8-72ECD1EE5249}"/>
+    <workbookView xWindow="840" yWindow="1390" windowWidth="15540" windowHeight="10200" xr2:uid="{AF2B8B76-E637-4FBF-82A8-72ECD1EE5249}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="177">
   <si>
     <t>text delim</t>
   </si>
@@ -352,6 +352,219 @@
   </si>
   <si>
     <t>740H20091118</t>
+  </si>
+  <si>
+    <t>file_type</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>extention</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>EXPOCODE</t>
+  </si>
+  <si>
+    <t>delim</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>Institution</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>doi</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>analysis_type</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>header_sep</t>
+  </si>
+  <si>
+    <t>missing_value</t>
+  </si>
+  <si>
+    <t>not_detected_value</t>
+  </si>
+  <si>
+    <t>Underway_ID</t>
+  </si>
+  <si>
+    <t>TZ</t>
+  </si>
+  <si>
+    <t>start_data_var</t>
+  </si>
+  <si>
+    <t>STNNBR</t>
+  </si>
+  <si>
+    <t>CASTNO</t>
+  </si>
+  <si>
+    <t>DATE_analyser</t>
+  </si>
+  <si>
+    <t>DATE_analyser_format</t>
+  </si>
+  <si>
+    <t>TIME_analyser</t>
+  </si>
+  <si>
+    <t>TIME_analyser_format</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>LAT_analyser</t>
+  </si>
+  <si>
+    <t>LON_analyser</t>
+  </si>
+  <si>
+    <t>POSITION_format</t>
+  </si>
+  <si>
+    <t>BOTTLE</t>
+  </si>
+  <si>
+    <t>DEPTH</t>
+  </si>
+  <si>
+    <t>PIG_u</t>
+  </si>
+  <si>
+    <t>FCHLORA</t>
+  </si>
+  <si>
+    <t>FPHEO</t>
+  </si>
+  <si>
+    <t>FPHYTIN</t>
+  </si>
+  <si>
+    <t>TCHLA</t>
+  </si>
+  <si>
+    <t>TACC</t>
+  </si>
+  <si>
+    <t>DVChla</t>
+  </si>
+  <si>
+    <t>Chla_ide</t>
+  </si>
+  <si>
+    <t>Chla_allom</t>
+  </si>
+  <si>
+    <t>Chla_prime</t>
+  </si>
+  <si>
+    <t>Chlb</t>
+  </si>
+  <si>
+    <t>DVChlb</t>
+  </si>
+  <si>
+    <t>Chlc</t>
+  </si>
+  <si>
+    <t>Chlc1_Chlc2_Mg_3_8_divinyl_pheoporphyrin_a5</t>
+  </si>
+  <si>
+    <t>Chlc1</t>
+  </si>
+  <si>
+    <t>Chlc1_like</t>
+  </si>
+  <si>
+    <t>Chlc2</t>
+  </si>
+  <si>
+    <t>Chlc1_Chlc2</t>
+  </si>
+  <si>
+    <t>Chlc3</t>
+  </si>
+  <si>
+    <t>MgDVP</t>
+  </si>
+  <si>
+    <t>19Hex</t>
+  </si>
+  <si>
+    <t>19But</t>
+  </si>
+  <si>
+    <t>Fucox</t>
+  </si>
+  <si>
+    <t>Prasino</t>
+  </si>
+  <si>
+    <t>Allox</t>
+  </si>
+  <si>
+    <t>Lutein</t>
+  </si>
+  <si>
+    <t>Zeax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zea_Lut </t>
+  </si>
+  <si>
+    <t>Violax</t>
+  </si>
+  <si>
+    <t>Alpha_car</t>
+  </si>
+  <si>
+    <t>Beta_car</t>
+  </si>
+  <si>
+    <t>Gamma_car</t>
+  </si>
+  <si>
+    <t>Epsilon_car</t>
+  </si>
+  <si>
+    <t>Alpha_Beta_car</t>
+  </si>
+  <si>
+    <t>Neox</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>Viol_Neox</t>
+  </si>
+  <si>
+    <t>Phaeopigments</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -718,15 +931,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AFF34E-D29D-4CEA-9E4E-3FAEDDAB55CE}">
-  <dimension ref="A2:BU30"/>
+  <dimension ref="A1:BW30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:73">
+    <row r="1" spans="1:75">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>157</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:75">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -872,7 +1312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:73">
+    <row r="3" spans="1:75">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1009,17 +1449,17 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:73">
+    <row r="4" spans="1:75">
       <c r="E4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:73">
+    <row r="5" spans="1:75">
       <c r="E5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:73">
+    <row r="6" spans="1:75">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1150,7 +1590,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:73">
+    <row r="7" spans="1:75">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +1664,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:73">
+    <row r="8" spans="1:75">
       <c r="D8" t="s">
         <v>86</v>
       </c>
@@ -1232,7 +1672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:73">
+    <row r="9" spans="1:75">
       <c r="D9" t="s">
         <v>86</v>
       </c>
@@ -1240,7 +1680,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:73">
+    <row r="10" spans="1:75">
       <c r="D10" t="s">
         <v>90</v>
       </c>
@@ -1248,7 +1688,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:73">
+    <row r="11" spans="1:75">
       <c r="D11" t="s">
         <v>3</v>
       </c>
@@ -1256,7 +1696,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:73">
+    <row r="12" spans="1:75">
       <c r="D12" t="s">
         <v>3</v>
       </c>
@@ -1264,12 +1704,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:73">
+    <row r="14" spans="1:75">
       <c r="D14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:73">
+    <row r="16" spans="1:75">
       <c r="D16" t="s">
         <v>92</v>
       </c>
